--- a/data/raw/LCA results per kg & NVS.xlsx
+++ b/data/raw/LCA results per kg & NVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/consulting/gain/nutritional_value_scores/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7F6E3-8E77-4141-89C3-6E42EA8CD5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20C687-7712-334B-9FB6-6CBCDB765454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="1300" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
+    <workbookView xWindow="8560" yWindow="1400" windowWidth="31600" windowHeight="13640" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3053FD3A-6E9A-4935-8CC3-3635B5365A56}">
   <dimension ref="A1:AT135"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -20302,8 +20302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603575EF-7AF9-EF4D-8E10-B7143DF9385E}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/raw/LCA results per kg & NVS.xlsx
+++ b/data/raw/LCA results per kg & NVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/consulting/gain/nutritional_value_scores/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20C687-7712-334B-9FB6-6CBCDB765454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552741AB-9933-784F-9647-6BB881536C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1400" windowWidth="31600" windowHeight="13640" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
+    <workbookView xWindow="8560" yWindow="1400" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1001,7 +1001,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,13 +1387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3053FD3A-6E9A-4935-8CC3-3635B5365A56}">
   <dimension ref="A1:AT135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>2.1366016477519616</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1.0100502594397065</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.92560983555614629</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0.58358631527680993</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.49260554338380008</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0.38783794168838015</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.37408921346412</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.32734163480037065</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0.31380362654885108</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.23767303366209813</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0.22938829890166668</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.2243070442821711</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0.17902315955947046</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.16795419494264152</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0.16731472846846157</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0.13829146698230768</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0.11607550311396227</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.11136940611923077</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>5.2937764043556629E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0.54397639296482858</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0.40285323198749995</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0.29618319258372394</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0.17865392889432408</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.15945153713921031</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0.12895050561468252</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0.12091375834036479</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0.10749938180732513</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="2" t="s">
         <v>133</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0.10489781261904252</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>9.7787690618813455E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="2" t="s">
         <v>137</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>7.1429479586769221E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>7.0423743623622276E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>6.3610199729945638E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="2" t="s">
         <v>143</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>5.8740254738105777E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="2" t="s">
         <v>145</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>5.8650056657189156E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>4.5788173890675153E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>4.5463741426321209E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>1.0123270097977826</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46">
       <c r="A39" s="2" t="s">
         <v>156</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0.16956684367372338</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46">
       <c r="A40" s="2" t="s">
         <v>158</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0.14901637092607223</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46">
       <c r="A41" s="2" t="s">
         <v>160</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0.11464404909235383</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46">
       <c r="A42" s="2" t="s">
         <v>162</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>7.7395161048356448E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46">
       <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>7.3827179688302255E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46">
       <c r="A44" s="2" t="s">
         <v>168</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>7.3035694681037086E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46">
       <c r="A45" s="2" t="s">
         <v>170</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>5.5451934382595179E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46">
       <c r="A46" s="2" t="s">
         <v>172</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>5.08410220206E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46">
       <c r="A47" s="2" t="s">
         <v>174</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>4.2023865640166663E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>3.3096127655541179</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0.22064085103694117</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46">
       <c r="A50" s="2" t="s">
         <v>182</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0.13953126985221723</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>7.1001210721220856E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46">
       <c r="A52" s="2" t="s">
         <v>187</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>6.9855152987985628E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46">
       <c r="A53" s="2" t="s">
         <v>189</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>6.7066854063402431E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46">
       <c r="A54" s="2" t="s">
         <v>192</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>6.533547658381747E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>4.7833608092225408E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46">
       <c r="A56" s="2" t="s">
         <v>198</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>4.5541460245866666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46">
       <c r="A57" s="2" t="s">
         <v>200</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>0.35272212525658131</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46">
       <c r="A58" s="2" t="s">
         <v>205</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0.31944645306256425</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46">
       <c r="A59" s="2" t="s">
         <v>209</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0.24020369038445316</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46">
       <c r="A60" s="2" t="s">
         <v>212</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>0.2366441938349359</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46">
       <c r="A61" s="2" t="s">
         <v>214</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>0.20948830273912361</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46">
       <c r="A62" s="2" t="s">
         <v>216</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0.19286588023377013</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0.16442254387835292</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46">
       <c r="A64" s="2" t="s">
         <v>221</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0.1534610723342017</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46">
       <c r="A65" s="2" t="s">
         <v>225</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>0.14073502205583335</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46">
       <c r="A66" s="2" t="s">
         <v>227</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0.13661778390727708</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46">
       <c r="A67" s="2" t="s">
         <v>229</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>0.13634561675888207</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46">
       <c r="A68" s="2" t="s">
         <v>231</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0.11673295039456062</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46">
       <c r="A69" s="2" t="s">
         <v>233</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>0.10975493990876771</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46">
       <c r="A70" s="2" t="s">
         <v>236</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>0.10752803270071738</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46">
       <c r="A71" s="2" t="s">
         <v>238</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>0.10296530919175891</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46">
       <c r="A72" s="2" t="s">
         <v>240</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>9.9160871302314199E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46">
       <c r="A73" s="2" t="s">
         <v>242</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>9.4835416717065399E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46">
       <c r="A74" s="2" t="s">
         <v>244</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>8.2879757945494653E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46">
       <c r="A75" s="2" t="s">
         <v>246</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>7.8357209390494065E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46">
       <c r="A76" s="2" t="s">
         <v>248</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>7.6990267520312516E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46">
       <c r="A77" s="2" t="s">
         <v>250</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>7.3598838297985386E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46">
       <c r="A78" s="2" t="s">
         <v>252</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>4.6882993344088505E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46">
       <c r="A79" s="2" t="s">
         <v>200</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>4.616655583146171E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46">
       <c r="A80" s="2" t="s">
         <v>254</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>3.2183684042966614E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46">
       <c r="A81" s="2" t="s">
         <v>256</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>2.0297408567837624E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46">
       <c r="A82" s="2" t="s">
         <v>259</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>1.3848323059214285E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46">
       <c r="A83" s="2" t="s">
         <v>261</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>1.3470123439564961E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46">
       <c r="A84" s="2" t="s">
         <v>263</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1.2123111095608465E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46">
       <c r="A85" s="2" t="s">
         <v>46</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>4.0703459198219258</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46">
       <c r="A86" s="2" t="s">
         <v>266</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>0.87025139179371891</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46">
       <c r="A87" s="2" t="s">
         <v>68</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0.63002489320847999</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>0.56970010881250743</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46">
       <c r="A89" s="2" t="s">
         <v>77</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>0.5594877587906808</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0.53658327220197555</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46">
       <c r="A91" s="2" t="s">
         <v>269</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>0.37948918801523013</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46">
       <c r="A92" s="2" t="s">
         <v>73</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>0.31969800144885097</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>0.22706376388356131</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46">
       <c r="A94" s="2" t="s">
         <v>271</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>0.22598059363826239</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46">
       <c r="A95" s="2" t="s">
         <v>272</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0.22078689015326083</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>0.21810908542499999</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>0.18908978398961537</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0.15583709852886793</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0.1533862774420755</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>4.3191519049523688E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46">
       <c r="A101" s="2" t="s">
         <v>274</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>1.9639160141562501E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46">
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0.5252376304249039</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>9.1376514122036206E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46">
       <c r="A104" s="2" t="s">
         <v>135</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>6.9054928765899998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46">
       <c r="A105" s="2" t="s">
         <v>137</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>5.5757065097192297E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46">
       <c r="A106" s="2" t="s">
         <v>141</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>5.3063586140795996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46">
       <c r="A107" s="2" t="s">
         <v>145</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>4.1417027633527101E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46">
       <c r="A108" s="2" t="s">
         <v>143</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>3.9149735513942303E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>3.7356831207927294E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46">
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>3.3257251829354212E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46">
       <c r="A111" s="2" t="s">
         <v>129</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>3.2807824311294892E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46">
       <c r="A112" s="2" t="s">
         <v>276</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>0.15122321962054999</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46">
       <c r="A113" s="2" t="s">
         <v>158</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0.14956055777868332</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46">
       <c r="A114" s="2" t="s">
         <v>277</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>5.7982427919015499E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46">
       <c r="A115" s="2" t="s">
         <v>279</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>3.7958279241992889E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46">
       <c r="A116" s="2" t="s">
         <v>180</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>0.21507276827537258</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46">
       <c r="A117" s="2" t="s">
         <v>280</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>0.19810511752499999</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46">
       <c r="A118" s="2" t="s">
         <v>282</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>0.15203415996104649</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46">
       <c r="A119" s="2" t="s">
         <v>184</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>6.8812543811869284E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46">
       <c r="A120" s="2" t="s">
         <v>189</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>6.5114618744597549E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46">
       <c r="A121" s="2" t="s">
         <v>192</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>5.101077423158016E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46">
       <c r="A122" s="2" t="s">
         <v>284</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.223022703338915</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46">
       <c r="A123" s="2" t="s">
         <v>214</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>0.2061540910734552</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46">
       <c r="A124" s="2" t="s">
         <v>216</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>0.1827536413825194</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46">
       <c r="A125" s="2" t="s">
         <v>286</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0.13265938515296802</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46">
       <c r="A126" s="2" t="s">
         <v>225</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.12961817985588542</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46">
       <c r="A127" s="2" t="s">
         <v>244</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>9.7575762923665516E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46">
       <c r="A128" s="2" t="s">
         <v>236</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>9.670119446613043E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46">
       <c r="A129" s="2" t="s">
         <v>240</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>8.9673936174054752E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46">
       <c r="A130" s="2" t="s">
         <v>242</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>8.8645960720255212E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46">
       <c r="A131" s="2" t="s">
         <v>229</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>6.4272247427550999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46">
       <c r="A132" s="2" t="s">
         <v>250</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>6.3892160704811421E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46">
       <c r="A133" s="2" t="s">
         <v>252</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>3.7490841697190726E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46">
       <c r="A134" s="2" t="s">
         <v>288</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>2.7027061916764392E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46">
       <c r="A135" s="2" t="s">
         <v>246</v>
       </c>
@@ -20302,11 +20302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603575EF-7AF9-EF4D-8E10-B7143DF9385E}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -20315,7 +20315,7 @@
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20822,10 +20822,10 @@
         <v>296</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -20839,10 +20839,10 @@
         <v>296</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>97.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>

--- a/data/raw/LCA results per kg & NVS.xlsx
+++ b/data/raw/LCA results per kg & NVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/consulting/gain/nutritional_value_scores/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552741AB-9933-784F-9647-6BB881536C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48046CF3-8B37-DB47-8381-14F616AA5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1400" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
+    <workbookView xWindow="4240" yWindow="1400" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -927,9 +927,6 @@
     <t>mPT/kg</t>
   </si>
   <si>
-    <t>mPT/NVS</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
@@ -991,6 +988,9 @@
   </si>
   <si>
     <t>Eutrophication</t>
+  </si>
+  <si>
+    <t>mPT/100 NVS</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,9 +1391,9 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>2.1366016477519616</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1.0100502594397065</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.92560983555614629</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0.58358631527680993</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.49260554338380008</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0.38783794168838015</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.37408921346412</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.32734163480037065</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0.31380362654885108</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.23767303366209813</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0.22938829890166668</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.2243070442821711</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0.17902315955947046</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.16795419494264152</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0.16731472846846157</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0.13829146698230768</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0.11607550311396227</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.11136940611923077</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>5.2937764043556629E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0.54397639296482858</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0.40285323198749995</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0.29618319258372394</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0.17865392889432408</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.15945153713921031</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0.12895050561468252</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0.12091375834036479</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0.10749938180732513</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>133</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0.10489781261904252</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>135</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>9.7787690618813455E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>137</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>7.1429479586769221E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>7.0423743623622276E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>6.3610199729945638E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>143</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>5.8740254738105777E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>145</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>5.8650056657189156E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>4.5788173890675153E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>4.5463741426321209E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>1.0123270097977826</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>156</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0.16956684367372338</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>158</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0.14901637092607223</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>160</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0.11464404909235383</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>162</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>7.7395161048356448E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>7.3827179688302255E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>168</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>7.3035694681037086E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>170</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>5.5451934382595179E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>172</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>5.08410220206E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>174</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>4.2023865640166663E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>3.3096127655541179</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0.22064085103694117</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>182</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0.13953126985221723</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>7.1001210721220856E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>187</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>6.9855152987985628E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>189</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>6.7066854063402431E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>192</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>6.533547658381747E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>4.7833608092225408E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>198</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>4.5541460245866666E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>200</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>0.35272212525658131</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>205</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0.31944645306256425</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>209</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0.24020369038445316</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>212</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>0.2366441938349359</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>214</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>0.20948830273912361</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>216</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0.19286588023377013</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0.16442254387835292</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>221</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0.1534610723342017</v>
       </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>225</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>0.14073502205583335</v>
       </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>227</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0.13661778390727708</v>
       </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>229</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>0.13634561675888207</v>
       </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>231</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0.11673295039456062</v>
       </c>
     </row>
-    <row r="69" spans="1:46">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>233</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>0.10975493990876771</v>
       </c>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>236</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>0.10752803270071738</v>
       </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>238</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>0.10296530919175891</v>
       </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>240</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>9.9160871302314199E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:46">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>242</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>9.4835416717065399E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:46">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>244</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>8.2879757945494653E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:46">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>246</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>7.8357209390494065E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:46">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>248</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>7.6990267520312516E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:46">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>250</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>7.3598838297985386E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:46">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>252</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>4.6882993344088505E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:46">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>200</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>4.616655583146171E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:46">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>254</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>3.2183684042966614E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>256</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>2.0297408567837624E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:46">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>259</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>1.3848323059214285E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:46">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>261</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>1.3470123439564961E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:46">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>263</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1.2123111095608465E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:46">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>46</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>4.0703459198219258</v>
       </c>
     </row>
-    <row r="86" spans="1:46">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>266</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>0.87025139179371891</v>
       </c>
     </row>
-    <row r="87" spans="1:46">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>68</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0.63002489320847999</v>
       </c>
     </row>
-    <row r="88" spans="1:46">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>0.56970010881250743</v>
       </c>
     </row>
-    <row r="89" spans="1:46">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>77</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>0.5594877587906808</v>
       </c>
     </row>
-    <row r="90" spans="1:46">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0.53658327220197555</v>
       </c>
     </row>
-    <row r="91" spans="1:46">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>269</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>0.37948918801523013</v>
       </c>
     </row>
-    <row r="92" spans="1:46">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>73</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>0.31969800144885097</v>
       </c>
     </row>
-    <row r="93" spans="1:46">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>0.22706376388356131</v>
       </c>
     </row>
-    <row r="94" spans="1:46">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>271</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>0.22598059363826239</v>
       </c>
     </row>
-    <row r="95" spans="1:46">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>272</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0.22078689015326083</v>
       </c>
     </row>
-    <row r="96" spans="1:46">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>0.21810908542499999</v>
       </c>
     </row>
-    <row r="97" spans="1:46">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>0.18908978398961537</v>
       </c>
     </row>
-    <row r="98" spans="1:46">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0.15583709852886793</v>
       </c>
     </row>
-    <row r="99" spans="1:46">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0.1533862774420755</v>
       </c>
     </row>
-    <row r="100" spans="1:46">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>4.3191519049523688E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:46">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>274</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>1.9639160141562501E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:46">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>0.5252376304249039</v>
       </c>
     </row>
-    <row r="103" spans="1:46">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>133</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>9.1376514122036206E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:46">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>135</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>6.9054928765899998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:46">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>137</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>5.5757065097192297E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:46">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>141</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>5.3063586140795996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:46">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>145</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>4.1417027633527101E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>143</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>3.9149735513942303E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>3.7356831207927294E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:46">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>3.3257251829354212E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:46">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>129</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>3.2807824311294892E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:46">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>276</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>0.15122321962054999</v>
       </c>
     </row>
-    <row r="113" spans="1:46">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>158</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0.14956055777868332</v>
       </c>
     </row>
-    <row r="114" spans="1:46">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>277</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>5.7982427919015499E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:46">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>279</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>3.7958279241992889E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:46">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>180</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>0.21507276827537258</v>
       </c>
     </row>
-    <row r="117" spans="1:46">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>280</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>0.19810511752499999</v>
       </c>
     </row>
-    <row r="118" spans="1:46">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>282</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>0.15203415996104649</v>
       </c>
     </row>
-    <row r="119" spans="1:46">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>184</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>6.8812543811869284E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:46">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>189</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>6.5114618744597549E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:46">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>192</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>5.101077423158016E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:46">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>284</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.223022703338915</v>
       </c>
     </row>
-    <row r="123" spans="1:46">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>214</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>0.2061540910734552</v>
       </c>
     </row>
-    <row r="124" spans="1:46">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>216</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>0.1827536413825194</v>
       </c>
     </row>
-    <row r="125" spans="1:46">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>286</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0.13265938515296802</v>
       </c>
     </row>
-    <row r="126" spans="1:46">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>225</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.12961817985588542</v>
       </c>
     </row>
-    <row r="127" spans="1:46">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>244</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>9.7575762923665516E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:46">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>236</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>9.670119446613043E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:46">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>240</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>8.9673936174054752E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:46">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>242</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>8.8645960720255212E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:46">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>229</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>6.4272247427550999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:46">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>250</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>6.3892160704811421E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:46">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>252</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>3.7490841697190726E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:46">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>288</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>2.7027061916764392E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:46">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>246</v>
       </c>
@@ -20303,24 +20303,24 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>290</v>
@@ -20329,32 +20329,32 @@
         <v>294</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
         <v>292</v>
@@ -20366,12 +20366,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>292</v>
@@ -20383,12 +20383,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>292</v>
@@ -20400,12 +20400,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>292</v>
@@ -20417,12 +20417,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
         <v>292</v>
@@ -20434,12 +20434,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>292</v>
@@ -20451,12 +20451,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
         <v>292</v>
@@ -20468,12 +20468,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
         <v>292</v>
@@ -20485,12 +20485,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>292</v>
@@ -20502,12 +20502,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>292</v>
@@ -20519,12 +20519,12 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
         <v>292</v>
@@ -20536,12 +20536,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
         <v>293</v>
@@ -20553,12 +20553,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>293</v>
@@ -20570,12 +20570,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
         <v>293</v>
@@ -20587,12 +20587,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
         <v>293</v>
@@ -20604,12 +20604,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
         <v>293</v>
@@ -20621,12 +20621,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
         <v>293</v>
@@ -20638,12 +20638,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
         <v>293</v>
@@ -20655,12 +20655,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
         <v>293</v>
@@ -20672,324 +20672,324 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
         <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
         <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E23">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
         <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
         <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s">
         <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
         <v>292</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
         <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
         <v>292</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
         <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E31">
         <v>97.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
         <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E32">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
         <v>293</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s">
         <v>293</v>
       </c>
       <c r="D34" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E34">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" t="s">
         <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
         <v>293</v>
       </c>
       <c r="D36" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
         <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E37">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s">
         <v>293</v>
       </c>
       <c r="D39" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
         <v>293</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E40">
         <v>50</v>

--- a/data/raw/LCA results per kg & NVS.xlsx
+++ b/data/raw/LCA results per kg & NVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/consulting/gain/nutritional_value_scores/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48046CF3-8B37-DB47-8381-14F616AA5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABE3F2-1E31-A44D-BD39-DEF05132C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="1400" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
   </bookViews>
@@ -20303,7 +20303,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20527,7 +20527,7 @@
         <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
         <v>295</v>
@@ -20850,7 +20850,7 @@
         <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
         <v>317</v>

--- a/data/raw/LCA results per kg & NVS.xlsx
+++ b/data/raw/LCA results per kg & NVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/consulting/gain/nutritional_value_scores/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABE3F2-1E31-A44D-BD39-DEF05132C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74F342-4E13-B748-A71E-128487C32C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="1400" windowWidth="31600" windowHeight="13640" activeTab="1" xr2:uid="{AAE51669-0AB3-4129-848A-831C9C0BDED2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="322">
   <si>
     <t>Food_LCAname</t>
   </si>
@@ -966,9 +966,6 @@
     <t>Land use</t>
   </si>
   <si>
-    <t>Resource use fossils</t>
-  </si>
-  <si>
     <t>Water use</t>
   </si>
   <si>
@@ -991,6 +988,21 @@
   </si>
   <si>
     <t>mPT/100 NVS</t>
+  </si>
+  <si>
+    <t>Fossil fuel use</t>
+  </si>
+  <si>
+    <t>TOTAL_categories_2.5_mPt_kg</t>
+  </si>
+  <si>
+    <t>TOTAL_categories_97.5_mPt_kg</t>
+  </si>
+  <si>
+    <t>TOTAL_categories_2.5_mPt_100NVS</t>
+  </si>
+  <si>
+    <t>TOTAL_categories_97.5_mPt_100NVS</t>
   </si>
 </sst>
 </file>
@@ -20300,10 +20312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603575EF-7AF9-EF4D-8E10-B7143DF9385E}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20337,13 +20349,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" t="s">
-        <v>314</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -20541,7 +20553,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>293</v>
@@ -20575,7 +20587,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>293</v>
@@ -20609,7 +20621,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
         <v>293</v>
@@ -20626,7 +20638,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
         <v>293</v>
@@ -20643,7 +20655,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>293</v>
@@ -20660,7 +20672,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>293</v>
@@ -20674,50 +20686,50 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
         <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -20725,16 +20737,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
         <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -20742,16 +20754,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -20759,16 +20771,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" t="s">
         <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -20776,16 +20788,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
         <v>292</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -20793,16 +20805,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
         <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -20810,24 +20822,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
         <v>292</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E30">
-        <v>2.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>305</v>
@@ -20836,58 +20848,58 @@
         <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31">
-        <v>97.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
         <v>293</v>
       </c>
       <c r="D34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E34">
         <v>50</v>
@@ -20895,16 +20907,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
         <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -20912,16 +20924,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
         <v>293</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -20929,16 +20941,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C37" t="s">
         <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -20946,16 +20958,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -20963,16 +20975,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
         <v>293</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -20980,19 +20992,87 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
         <v>293</v>
       </c>
       <c r="D40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E40">
         <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44">
+        <v>97.5</v>
       </c>
     </row>
   </sheetData>
